--- a/mechanical_turk/HTML_files/Dialogue.xlsx
+++ b/mechanical_turk/HTML_files/Dialogue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\ARL\mechanical_turk\HTML_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B800B684-A72D-47B3-81CB-62CCDF078223}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9F0ECD-1B24-486F-9A05-9F2074195B5E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5112" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DME" sheetId="1" r:id="rId1"/>
@@ -2607,8 +2607,8 @@
   </sheetPr>
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4908,7 +4908,7 @@
         <v>4</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>35</v>
@@ -4929,7 +4929,7 @@
         <v>4</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>35</v>
@@ -4950,7 +4950,7 @@
         <v>4</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>35</v>
@@ -5193,7 +5193,7 @@
         <v>4</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>35</v>
@@ -5214,7 +5214,7 @@
         <v>4</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>35</v>
@@ -5235,7 +5235,7 @@
         <v>4</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>35</v>
@@ -5411,7 +5411,7 @@
         <v>4</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>35</v>
@@ -5433,7 +5433,7 @@
         <v>4</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>35</v>
@@ -5454,7 +5454,7 @@
         <v>4</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>35</v>
@@ -8102,8 +8102,8 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129"/>
+    <sheetView topLeftCell="A121" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/mechanical_turk/HTML_files/Dialogue.xlsx
+++ b/mechanical_turk/HTML_files/Dialogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\ARL\mechanical_turk\HTML_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9F0ECD-1B24-486F-9A05-9F2074195B5E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65DF4EF-53CB-4E3C-899A-DAE4402D13FE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2608,7 +2608,7 @@
   <dimension ref="A1:H999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
